--- a/maps/Maps.xlsx
+++ b/maps/Maps.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\xbxsx\maps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE4062-AFB0-4344-8337-38BB701B22C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="玉溜关" sheetId="1" r:id="rId1"/>
     <sheet name="南田山" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="资源 " sheetId="2" r:id="rId3"/>
+    <sheet name="灵根" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
   <si>
     <t>门</t>
   </si>
@@ -46,19 +53,90 @@
   </si>
   <si>
     <t>出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数/h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>产量/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10s</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废品</t>
+  </si>
+  <si>
+    <t>凡品</t>
+  </si>
+  <si>
+    <t>下品</t>
+  </si>
+  <si>
+    <t>中品</t>
+  </si>
+  <si>
+    <t>良品</t>
+  </si>
+  <si>
+    <t>上品</t>
+  </si>
+  <si>
+    <t>超品</t>
+  </si>
+  <si>
+    <t>极品</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>先天</t>
+  </si>
+  <si>
+    <t>凡仙</t>
+  </si>
+  <si>
+    <t>仙品</t>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,158 +152,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,7 +198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.0499893185216834"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,192 +234,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -479,54 +268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,192 +282,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,62 +328,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1076,24 +610,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="22" width="4.125" customWidth="1"/>
+    <col min="1" max="22" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:22">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1117,7 +651,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1153,7 +687,7 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:22">
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1189,7 +723,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:22">
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -1227,7 +761,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:22">
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1255,7 +789,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:22">
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1289,7 +823,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -1331,7 +865,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1359,7 +893,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1385,7 +919,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1417,7 +951,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:22">
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1443,7 +977,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:22">
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1475,7 +1009,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:22">
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1501,7 +1035,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:22">
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -1535,7 +1069,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:22">
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
@@ -1561,7 +1095,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:22">
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
@@ -1589,7 +1123,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:22">
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2"/>
@@ -1621,7 +1155,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:22">
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2"/>
@@ -1647,7 +1181,7 @@
       </c>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:22">
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1679,7 +1213,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:22">
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1709,7 +1243,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -1737,7 +1271,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1762,27 +1296,26 @@
       <c r="V22" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="22" width="4.125" customWidth="1"/>
+    <col min="1" max="22" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:22">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1806,7 +1339,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:22">
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1840,7 +1373,7 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:22">
+    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1874,7 +1407,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:22">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -1912,7 +1445,7 @@
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:22">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1946,7 +1479,7 @@
       </c>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:22">
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1984,7 +1517,7 @@
       </c>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:22">
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -2025,8 +1558,11 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:22">
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2054,7 +1590,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:22">
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2079,7 +1615,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:22">
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2111,7 +1647,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:22">
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2139,7 +1675,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:22">
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>3</v>
@@ -2175,7 +1711,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:22">
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2201,7 +1737,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:22">
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>3</v>
@@ -2233,7 +1769,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:22">
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
@@ -2258,7 +1794,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:22">
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
@@ -2288,7 +1824,7 @@
       </c>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:22">
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
@@ -2319,7 +1855,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:22">
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="2"/>
@@ -2343,7 +1879,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:22">
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -2380,7 +1916,7 @@
       </c>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:22">
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>2</v>
@@ -2414,7 +1950,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
@@ -2444,7 +1980,7 @@
       </c>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2469,24 +2005,306 @@
       <c r="V22" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="16.75" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>40</v>
+      </c>
+      <c r="B2" s="13">
+        <v>360</v>
+      </c>
+      <c r="C2" s="13">
+        <f>A2*B2</f>
+        <v>14400</v>
+      </c>
+      <c r="D2" s="13">
+        <v>51000</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2/C2</f>
+        <v>3.5416666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F55ECB-7AC6-45A3-8B26-B333E72695A0}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10">
+        <v>15034</v>
+      </c>
+      <c r="I7" s="10">
+        <v>15523</v>
+      </c>
+      <c r="J7" s="10">
+        <v>16020</v>
+      </c>
+      <c r="K7" s="10">
+        <v>16524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10">
+        <v>17035</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>18079</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/maps/Maps.xlsx
+++ b/maps/Maps.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\xbxsx\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE4062-AFB0-4344-8337-38BB701B22C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D472A1-D3A1-4500-97BB-F3D143F31A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="玉溜关" sheetId="1" r:id="rId1"/>
-    <sheet name="南田山" sheetId="3" r:id="rId2"/>
+    <sheet name="南田山" sheetId="3" r:id="rId1"/>
+    <sheet name="玉溜关" sheetId="1" r:id="rId2"/>
     <sheet name="资源 " sheetId="2" r:id="rId3"/>
     <sheet name="灵根" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
   <si>
     <t>门</t>
   </si>
@@ -64,10 +65,6 @@
   </si>
   <si>
     <t>产量/h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +126,43 @@
   </si>
   <si>
     <t>级别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM1:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +372,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,694 +652,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="22" width="3.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
@@ -2011,23 +1360,717 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="13"/>
-    <col min="5" max="5" width="16.75" style="13" customWidth="1"/>
+    <col min="1" max="22" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="9"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J28" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="12.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>11</v>
@@ -2036,13 +2079,19 @@
         <v>12</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>40</v>
       </c>
@@ -2054,11 +2103,21 @@
         <v>14400</v>
       </c>
       <c r="D2" s="13">
-        <v>51000</v>
+        <v>69687</v>
       </c>
       <c r="E2" s="13">
-        <f>D2/C2</f>
-        <v>3.5416666666666665</v>
+        <v>11450</v>
+      </c>
+      <c r="F2" s="13">
+        <f>D2-E2</f>
+        <v>58237</v>
+      </c>
+      <c r="G2" s="13">
+        <f>F2/C2</f>
+        <v>4.0442361111111111</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2073,14 +2132,14 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
@@ -2092,12 +2151,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="10">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10">
         <v>5</v>
       </c>
-      <c r="F1" s="10">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="10">
+        <v>6</v>
+      </c>
       <c r="H1" s="10">
         <v>7</v>
       </c>
@@ -2113,7 +2174,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2128,7 +2189,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -2143,7 +2204,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2158,7 +2219,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2173,7 +2234,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2188,7 +2249,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2211,46 +2272,64 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10">
         <v>17035</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>17554</v>
+      </c>
       <c r="D8" s="10">
         <v>18079</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="E8" s="10">
+        <v>18612</v>
+      </c>
+      <c r="F8" s="10">
+        <v>19152</v>
+      </c>
+      <c r="G8" s="10">
+        <v>19699</v>
+      </c>
+      <c r="H8" s="10">
+        <v>20254</v>
+      </c>
+      <c r="I8" s="10">
+        <v>20815</v>
+      </c>
+      <c r="J8" s="10">
+        <v>21384</v>
+      </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>24336</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="10">
+        <v>29434</v>
+      </c>
+      <c r="D10" s="10">
+        <v>30103</v>
+      </c>
+      <c r="E10" s="10">
+        <v>30780</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2260,7 +2339,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2270,12 +2349,14 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2290,7 +2371,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2306,5 +2387,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>